--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-patient.xlsx
@@ -553,8 +553,9 @@
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
 Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
-医療機関識別OID番号は患者IDの発行者である医療機関の識別するものである。医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード（１０桁）)を参照すること。  
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```例：医療機関コード「1312345670」の場合
+「urn:oid:1.2.392.100495.20.3.51.11312345670」```
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-patient.xlsx
@@ -554,8 +554,9 @@
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
 Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
 医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
-```例：医療機関コード「1312345670」の場合
-「urn:oid:1.2.392.100495.20.3.51.11312345670」```
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-patient.xlsx
@@ -696,12 +696,12 @@
   </si>
   <si>
     <t>Identifier.system is always case sensitive.  
-IDの名前空間を表す。
-医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。  
-医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。  
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。  
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」  
-Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
+Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
+なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
